--- a/output/main/_internal/Electrolyser data.xlsx
+++ b/output/main/_internal/Electrolyser data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47003B0E-B81A-40B3-AC7B-F33CB40F0578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A32BE2F-8E0B-466D-A302-C1E3FEF1EC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3552" windowWidth="17112" windowHeight="8796" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3275" yWindow="-9450" windowWidth="16945" windowHeight="8710" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,6 +339,9 @@
     <t>Minimum Load Max</t>
   </si>
   <si>
+    <t>System Electricity Consumption</t>
+  </si>
+  <si>
     <t>Efficiency (LHV)</t>
   </si>
   <si>
@@ -409,9 +412,6 @@
   </si>
   <si>
     <t>/10</t>
-  </si>
-  <si>
-    <t>System Electricity Consumption</t>
   </si>
 </sst>
 </file>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:U5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,6 +1450,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
@@ -1458,11 +1463,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1472,7 +1472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03B1312-1625-4FD3-BECF-56DDACB845AB}">
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AT12" sqref="AT12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1574,10 +1576,10 @@
         <v>99</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>82</v>
@@ -1586,28 +1588,28 @@
         <v>83</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF1" s="7" t="s">
         <v>6</v>
@@ -1660,139 +1662,139 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="W2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="AF2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN2" s="6">
         <v>10</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
@@ -1893,10 +1895,10 @@
         <v>10</v>
       </c>
       <c r="AG3" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH3" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI3" s="12">
         <v>9</v>
@@ -1911,16 +1913,16 @@
         <v>8</v>
       </c>
       <c r="AM3" s="12">
+        <v>6</v>
+      </c>
+      <c r="AN3" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO3" s="12">
         <v>8</v>
       </c>
-      <c r="AN3" s="12">
+      <c r="AP3" s="12">
         <v>7</v>
-      </c>
-      <c r="AO3" s="12">
-        <v>9</v>
-      </c>
-      <c r="AP3" s="12">
-        <v>8</v>
       </c>
       <c r="AQ3" s="12">
         <v>5</v>
@@ -1929,10 +1931,10 @@
         <v>9</v>
       </c>
       <c r="AS3" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT3" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
@@ -2029,10 +2031,10 @@
         <v>7</v>
       </c>
       <c r="AG4" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH4" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" s="12">
         <v>3</v>
@@ -2047,16 +2049,16 @@
         <v>7</v>
       </c>
       <c r="AM4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AN4" s="12">
+        <v>7</v>
+      </c>
+      <c r="AO4" s="12">
+        <v>7</v>
+      </c>
+      <c r="AP4" s="12">
         <v>8</v>
-      </c>
-      <c r="AN4" s="12">
-        <v>9</v>
-      </c>
-      <c r="AO4" s="12">
-        <v>8</v>
-      </c>
-      <c r="AP4" s="12">
-        <v>9</v>
       </c>
       <c r="AQ4" s="12">
         <v>5</v>
@@ -2065,10 +2067,10 @@
         <v>7</v>
       </c>
       <c r="AS4" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT4" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
@@ -2169,10 +2171,10 @@
         <v>3</v>
       </c>
       <c r="AG5" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH5" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI5" s="2">
         <v>7</v>
@@ -2187,16 +2189,16 @@
         <v>5</v>
       </c>
       <c r="AM5" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN5" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ5" s="2">
         <v>5</v>
@@ -2205,10 +2207,10 @@
         <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
@@ -2309,10 +2311,10 @@
         <v>1</v>
       </c>
       <c r="AG6" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI6" s="12">
         <v>4</v>
@@ -2327,16 +2329,16 @@
         <v>4</v>
       </c>
       <c r="AM6" s="12">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="12">
         <v>7</v>
       </c>
-      <c r="AN6" s="12">
-        <v>9</v>
-      </c>
       <c r="AO6" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP6" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ6" s="12">
         <v>5</v>
@@ -2345,10 +2347,10 @@
         <v>6</v>
       </c>
       <c r="AS6" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT6" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2357,6 +2359,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -2534,15 +2545,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2554,6 +2556,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04138F4-C2EC-45BF-818E-E97EF4C3AE40}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2571,20 +2581,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C747844-6093-4F1A-B800-1A4131821663}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>